--- a/data_2021PPP.xlsx
+++ b/data_2021PPP.xlsx
@@ -94,13 +94,13 @@
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Poverty $3.00 usd</t>
-  </si>
-  <si>
-    <t>Poverty $4.20 usd</t>
-  </si>
-  <si>
-    <t>Poverty $8.30 usd</t>
+    <t>Poverty $3.00/day (2021 PPP)</t>
+  </si>
+  <si>
+    <t>Poverty $4.20/day (2021 PPP)</t>
+  </si>
+  <si>
+    <t>Poverty $8.30/day (2021 PPP)</t>
   </si>
   <si>
     <t>Gini</t>

--- a/data_2021PPP.xlsx
+++ b/data_2021PPP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="33">
   <si>
     <t>Country</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Poverty $8.30/day (2021 PPP)</t>
+  </si>
+  <si>
+    <t>Vulnerable ($6.85 - $14 usd)/day (2017 PPP)</t>
+  </si>
+  <si>
+    <t>Middle Class ($14 -$81 usd)/day (2017 PPP)</t>
+  </si>
+  <si>
+    <t>Upper Class (+ $81 usd)/day (2017 PPP)</t>
   </si>
   <si>
     <t>Gini</t>
@@ -461,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,16 +516,16 @@
         <v>1.2</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -533,16 +542,16 @@
         <v>3.1</v>
       </c>
       <c r="E3">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="F3">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="G3">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H3">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -559,16 +568,16 @@
         <v>16.4</v>
       </c>
       <c r="E4">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="F4">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="G4">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="H4">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -579,100 +588,100 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>40.7</v>
+        <v>21.3</v>
       </c>
       <c r="D5">
-        <v>42.4</v>
+        <v>20.6</v>
       </c>
       <c r="E5">
-        <v>42.4</v>
+        <v>19.8</v>
       </c>
       <c r="F5">
-        <v>42.2</v>
+        <v>24.8</v>
       </c>
       <c r="G5">
-        <v>42.2</v>
+        <v>24.3</v>
       </c>
       <c r="H5">
-        <v>42.2</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>62.2</v>
       </c>
       <c r="D6">
-        <v>2.8</v>
+        <v>60.2</v>
       </c>
       <c r="E6">
-        <v>2.9</v>
+        <v>61.7</v>
       </c>
       <c r="F6">
-        <v>3.3</v>
+        <v>62.2</v>
       </c>
       <c r="G6">
-        <v>3.5</v>
+        <v>62.6</v>
       </c>
       <c r="H6">
-        <v>3.8</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="E7">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="F7">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="H7">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>18.5</v>
+        <v>40.7</v>
       </c>
       <c r="D8">
-        <v>16.5</v>
+        <v>42.4</v>
       </c>
       <c r="E8">
-        <v>16.9</v>
+        <v>42.4</v>
       </c>
       <c r="F8">
-        <v>17.4</v>
+        <v>42.4</v>
       </c>
       <c r="G8">
-        <v>17.7</v>
+        <v>42.5</v>
       </c>
       <c r="H8">
-        <v>17.9</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -680,1653 +689,2748 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>41.2</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
-        <v>42.1</v>
+        <v>2.8</v>
       </c>
       <c r="E9">
-        <v>42.2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>42.5</v>
+        <v>3.9</v>
       </c>
       <c r="G9">
-        <v>42.6</v>
+        <v>4.8</v>
       </c>
       <c r="H9">
-        <v>42.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="D10">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="E10">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="F10">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="G10">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="H10">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="D11">
-        <v>7.5</v>
+        <v>16.5</v>
       </c>
       <c r="E11">
-        <v>7.3</v>
+        <v>17.2</v>
       </c>
       <c r="F11">
-        <v>7.2</v>
+        <v>18.4</v>
       </c>
       <c r="G11">
-        <v>7.1</v>
+        <v>19.9</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>25.3</v>
+        <v>23.1</v>
       </c>
       <c r="D12">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E12">
-        <v>22.7</v>
+        <v>28.5</v>
       </c>
       <c r="F12">
-        <v>22.6</v>
+        <v>28.5</v>
       </c>
       <c r="G12">
-        <v>22.3</v>
+        <v>28.3</v>
       </c>
       <c r="H12">
-        <v>22.1</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>56.6</v>
       </c>
       <c r="D13">
-        <v>51.6</v>
+        <v>57.7</v>
       </c>
       <c r="E13">
-        <v>51.7</v>
+        <v>57.3</v>
       </c>
       <c r="F13">
-        <v>51.7</v>
+        <v>56.2</v>
       </c>
       <c r="G13">
-        <v>51.7</v>
+        <v>55.2</v>
       </c>
       <c r="H13">
-        <v>51.6</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>41.2</v>
       </c>
       <c r="D15">
-        <v>0.9</v>
+        <v>42.1</v>
       </c>
       <c r="E15">
-        <v>0.9</v>
+        <v>42.3</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>42.8</v>
       </c>
       <c r="G15">
-        <v>0.8</v>
+        <v>43.3</v>
       </c>
       <c r="H15">
-        <v>0.8</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="D16">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="E16">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="H16">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>8.5</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>7.5</v>
       </c>
       <c r="E17">
-        <v>43</v>
+        <v>6.2</v>
       </c>
       <c r="F17">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>43</v>
+        <v>5.9</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>9.300000000000001</v>
+        <v>25.3</v>
       </c>
       <c r="D18">
-        <v>7.7</v>
+        <v>23.4</v>
       </c>
       <c r="E18">
-        <v>7.5</v>
+        <v>20.6</v>
       </c>
       <c r="F18">
-        <v>7.2</v>
+        <v>20.3</v>
       </c>
       <c r="G18">
-        <v>7.2</v>
+        <v>20.1</v>
       </c>
       <c r="H18">
-        <v>7.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>15.8</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>13.9</v>
+        <v>21.1</v>
       </c>
       <c r="E19">
-        <v>13.6</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>13.1</v>
+        <v>26.1</v>
       </c>
       <c r="G19">
-        <v>12.9</v>
+        <v>26</v>
       </c>
       <c r="H19">
-        <v>12.8</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>40.2</v>
+        <v>48.2</v>
       </c>
       <c r="D20">
-        <v>37.6</v>
+        <v>50.6</v>
       </c>
       <c r="E20">
-        <v>36.5</v>
+        <v>53.4</v>
       </c>
       <c r="F20">
-        <v>35.9</v>
+        <v>54</v>
       </c>
       <c r="G20">
-        <v>35.6</v>
+        <v>54.2</v>
       </c>
       <c r="H20">
-        <v>35.2</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>54.8</v>
+        <v>4.5</v>
       </c>
       <c r="D21">
-        <v>53.9</v>
+        <v>4.9</v>
       </c>
       <c r="E21">
-        <v>54.1</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>54.1</v>
+        <v>5.2</v>
       </c>
       <c r="G21">
-        <v>54</v>
+        <v>5.2</v>
       </c>
       <c r="H21">
-        <v>54.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>1.6</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>51.6</v>
       </c>
       <c r="E22">
-        <v>1.3</v>
+        <v>50.3</v>
       </c>
       <c r="F22">
-        <v>1.2</v>
+        <v>50.2</v>
       </c>
       <c r="G22">
-        <v>1.2</v>
+        <v>50.2</v>
       </c>
       <c r="H22">
-        <v>1.2</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D23">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="F23">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H23">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <v>17.1</v>
+        <v>0.9</v>
       </c>
       <c r="D24">
-        <v>15.3</v>
+        <v>0.9</v>
       </c>
       <c r="E24">
-        <v>12.6</v>
+        <v>0.9</v>
       </c>
       <c r="F24">
-        <v>11.9</v>
+        <v>0.9</v>
       </c>
       <c r="G24">
-        <v>11.6</v>
+        <v>0.8</v>
       </c>
       <c r="H24">
-        <v>11.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <v>47.2</v>
+        <v>5.7</v>
       </c>
       <c r="D25">
-        <v>46.7</v>
+        <v>5.7</v>
       </c>
       <c r="E25">
-        <v>45.8</v>
+        <v>5.5</v>
       </c>
       <c r="F25">
-        <v>45.6</v>
+        <v>5.3</v>
       </c>
       <c r="G25">
-        <v>45.6</v>
+        <v>5.2</v>
       </c>
       <c r="H25">
-        <v>45.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>16.6</v>
       </c>
       <c r="D26">
-        <v>1.3</v>
+        <v>19.1</v>
       </c>
       <c r="E26">
-        <v>1.1</v>
+        <v>18.6</v>
       </c>
       <c r="F26">
-        <v>1.1</v>
+        <v>18.2</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>17.8</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>71.2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>71.2</v>
       </c>
       <c r="E27">
-        <v>2.4</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F27">
-        <v>2.3</v>
+        <v>72</v>
       </c>
       <c r="G27">
-        <v>2.2</v>
+        <v>72.3</v>
       </c>
       <c r="H27">
-        <v>2.1</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>20.2</v>
+        <v>6.5</v>
       </c>
       <c r="D28">
-        <v>16.9</v>
+        <v>6.4</v>
       </c>
       <c r="E28">
-        <v>14.9</v>
+        <v>6.6</v>
       </c>
       <c r="F28">
-        <v>14.4</v>
+        <v>6.8</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>6.9</v>
       </c>
       <c r="H28">
-        <v>13.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>38.4</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>38.2</v>
+        <v>43.1</v>
       </c>
       <c r="F29">
-        <v>38.3</v>
+        <v>43.1</v>
       </c>
       <c r="G29">
-        <v>38.3</v>
+        <v>43.1</v>
       </c>
       <c r="H29">
-        <v>38.4</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30">
-        <v>4.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D30">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="E30">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="F30">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G30">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="H30">
-        <v>7.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31">
-        <v>9.199999999999999</v>
+        <v>15.8</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>13.9</v>
       </c>
       <c r="E31">
-        <v>12.1</v>
+        <v>14.7</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>14.2</v>
       </c>
       <c r="G31">
-        <v>11.9</v>
+        <v>13.9</v>
       </c>
       <c r="H31">
-        <v>11.9</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32">
-        <v>30.9</v>
+        <v>40.2</v>
       </c>
       <c r="D32">
-        <v>30.8</v>
+        <v>37.6</v>
       </c>
       <c r="E32">
-        <v>32.6</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>32.4</v>
+        <v>36.2</v>
       </c>
       <c r="G32">
-        <v>32.1</v>
+        <v>35.7</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33">
-        <v>45.5</v>
+        <v>22.6</v>
       </c>
       <c r="D33">
-        <v>44.6</v>
+        <v>22.9</v>
       </c>
       <c r="E33">
-        <v>45.2</v>
+        <v>22.1</v>
       </c>
       <c r="F33">
-        <v>45.2</v>
+        <v>29.8</v>
       </c>
       <c r="G33">
-        <v>45.3</v>
+        <v>29.8</v>
       </c>
       <c r="H33">
-        <v>45.3</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>34.3</v>
       </c>
       <c r="D34">
-        <v>9.699999999999999</v>
+        <v>36.3</v>
       </c>
       <c r="E34">
-        <v>10.6</v>
+        <v>37.6</v>
       </c>
       <c r="F34">
-        <v>11.1</v>
+        <v>38.2</v>
       </c>
       <c r="G34">
-        <v>11.7</v>
+        <v>38.6</v>
       </c>
       <c r="H34">
-        <v>11.6</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>17.6</v>
+        <v>3.1</v>
       </c>
       <c r="E35">
-        <v>18.4</v>
+        <v>3.2</v>
       </c>
       <c r="F35">
-        <v>18.7</v>
+        <v>3.3</v>
       </c>
       <c r="G35">
-        <v>18.9</v>
+        <v>3.3</v>
       </c>
       <c r="H35">
-        <v>18.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>54.8</v>
       </c>
       <c r="D36">
-        <v>47.3</v>
+        <v>53.9</v>
       </c>
       <c r="E36">
-        <v>46.8</v>
+        <v>54.4</v>
       </c>
       <c r="F36">
-        <v>46.7</v>
+        <v>54.2</v>
       </c>
       <c r="G36">
-        <v>46.2</v>
+        <v>54.1</v>
       </c>
       <c r="H36">
-        <v>45.7</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1.6</v>
       </c>
       <c r="D37">
-        <v>45.2</v>
+        <v>1.5</v>
       </c>
       <c r="E37">
-        <v>45.7</v>
+        <v>1.3</v>
       </c>
       <c r="F37">
-        <v>45.8</v>
+        <v>1.3</v>
       </c>
       <c r="G37">
-        <v>46.1</v>
+        <v>1.3</v>
       </c>
       <c r="H37">
-        <v>46.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="E38">
-        <v>17.3</v>
+        <v>2.6</v>
       </c>
       <c r="F38">
-        <v>16.2</v>
+        <v>2.6</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>2.6</v>
       </c>
       <c r="H38">
-        <v>15.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>17.1</v>
       </c>
       <c r="D39">
-        <v>26.6</v>
+        <v>15.3</v>
       </c>
       <c r="E39">
-        <v>26.6</v>
+        <v>12.6</v>
       </c>
       <c r="F39">
-        <v>25.6</v>
+        <v>12.1</v>
       </c>
       <c r="G39">
-        <v>25.4</v>
+        <v>11.7</v>
       </c>
       <c r="H39">
-        <v>24.9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>53.3</v>
+        <v>20.1</v>
       </c>
       <c r="E40">
-        <v>53</v>
+        <v>19.5</v>
       </c>
       <c r="F40">
-        <v>52</v>
+        <v>23.3</v>
       </c>
       <c r="G40">
-        <v>51.6</v>
+        <v>22.9</v>
       </c>
       <c r="H40">
-        <v>51.1</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>56.3</v>
       </c>
       <c r="D41">
-        <v>46.8</v>
+        <v>59.4</v>
       </c>
       <c r="E41">
-        <v>47.1</v>
+        <v>61.8</v>
       </c>
       <c r="F41">
-        <v>47.1</v>
+        <v>62.6</v>
       </c>
       <c r="G41">
-        <v>47.1</v>
+        <v>63</v>
       </c>
       <c r="H41">
-        <v>47.1</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C42">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="D42">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="E42">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="F42">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="G42">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="H42">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>9.9</v>
+        <v>47.2</v>
       </c>
       <c r="D43">
-        <v>9.300000000000001</v>
+        <v>46.7</v>
       </c>
       <c r="E43">
-        <v>9.300000000000001</v>
+        <v>45.8</v>
       </c>
       <c r="F43">
-        <v>9.199999999999999</v>
+        <v>45.7</v>
       </c>
       <c r="G43">
-        <v>9.1</v>
+        <v>45.7</v>
       </c>
       <c r="H43">
-        <v>9</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>27.8</v>
+        <v>1.3</v>
       </c>
       <c r="E44">
-        <v>27.3</v>
+        <v>0.8</v>
       </c>
       <c r="F44">
-        <v>27.2</v>
+        <v>0.7</v>
       </c>
       <c r="G44">
-        <v>27</v>
+        <v>0.7</v>
       </c>
       <c r="H44">
-        <v>26.7</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>49.9</v>
+        <v>3.2</v>
       </c>
       <c r="D45">
-        <v>49.8</v>
+        <v>3</v>
       </c>
       <c r="E45">
-        <v>49.9</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>49.9</v>
+        <v>1.9</v>
       </c>
       <c r="G45">
-        <v>49.9</v>
+        <v>1.8</v>
       </c>
       <c r="H45">
-        <v>49.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46">
-        <v>2.3</v>
+        <v>20.2</v>
       </c>
       <c r="D46">
-        <v>2.2</v>
+        <v>16.9</v>
       </c>
       <c r="E46">
-        <v>2.2</v>
+        <v>14</v>
       </c>
       <c r="F46">
-        <v>2.2</v>
+        <v>13.4</v>
       </c>
       <c r="G46">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="H46">
-        <v>2.2</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>5.7</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>5.3</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>5.3</v>
+        <v>24</v>
       </c>
       <c r="F47">
-        <v>5.4</v>
+        <v>28.9</v>
       </c>
       <c r="G47">
-        <v>5.3</v>
+        <v>28.5</v>
       </c>
       <c r="H47">
-        <v>5.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C48">
-        <v>27.4</v>
+        <v>49.9</v>
       </c>
       <c r="D48">
-        <v>26.4</v>
+        <v>56</v>
       </c>
       <c r="E48">
-        <v>26.1</v>
+        <v>60.3</v>
       </c>
       <c r="F48">
-        <v>26.5</v>
+        <v>61</v>
       </c>
       <c r="G48">
-        <v>26.3</v>
+        <v>61.7</v>
       </c>
       <c r="H48">
-        <v>25.9</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C49">
-        <v>43.5</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
-        <v>43.5</v>
+        <v>1.2</v>
       </c>
       <c r="E49">
-        <v>43.5</v>
+        <v>1.7</v>
       </c>
       <c r="F49">
-        <v>43.5</v>
+        <v>1.8</v>
       </c>
       <c r="G49">
-        <v>43.5</v>
+        <v>1.8</v>
       </c>
       <c r="H49">
-        <v>43.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C50">
-        <v>8.699999999999999</v>
+        <v>37</v>
       </c>
       <c r="D50">
-        <v>7.9</v>
+        <v>38.4</v>
       </c>
       <c r="E50">
-        <v>7.4</v>
+        <v>39</v>
       </c>
       <c r="F50">
-        <v>7.3</v>
+        <v>38.8</v>
       </c>
       <c r="G50">
-        <v>6.9</v>
+        <v>38.8</v>
       </c>
       <c r="H50">
-        <v>6.7</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51">
-        <v>14.4</v>
+        <v>4.4</v>
       </c>
       <c r="D51">
-        <v>13.1</v>
+        <v>4.7</v>
       </c>
       <c r="E51">
-        <v>12.6</v>
+        <v>7.3</v>
       </c>
       <c r="F51">
-        <v>12.4</v>
+        <v>7.3</v>
       </c>
       <c r="G51">
-        <v>11.8</v>
+        <v>7.3</v>
       </c>
       <c r="H51">
-        <v>11.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>40.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D52">
-        <v>37.9</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>36.7</v>
+        <v>12.1</v>
       </c>
       <c r="F52">
-        <v>36.2</v>
+        <v>12</v>
       </c>
       <c r="G52">
-        <v>35.7</v>
+        <v>11.8</v>
       </c>
       <c r="H52">
-        <v>35.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>48</v>
+        <v>30.9</v>
       </c>
       <c r="D53">
-        <v>48.8</v>
+        <v>30.8</v>
       </c>
       <c r="E53">
-        <v>49.1</v>
+        <v>32.6</v>
       </c>
       <c r="F53">
-        <v>49.1</v>
+        <v>32.1</v>
       </c>
       <c r="G53">
-        <v>48.9</v>
+        <v>31.8</v>
       </c>
       <c r="H53">
-        <v>48.8</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54">
-        <v>3.7</v>
-      </c>
-      <c r="E54">
-        <v>3.3</v>
-      </c>
-      <c r="F54">
-        <v>3.4</v>
-      </c>
-      <c r="G54">
-        <v>3.5</v>
-      </c>
-      <c r="H54">
-        <v>3.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55">
-        <v>7.2</v>
-      </c>
-      <c r="E55">
-        <v>7.4</v>
-      </c>
-      <c r="F55">
-        <v>7.5</v>
-      </c>
-      <c r="G55">
-        <v>7.7</v>
-      </c>
-      <c r="H55">
-        <v>7.7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56">
-        <v>19.8</v>
-      </c>
-      <c r="E56">
-        <v>20.9</v>
-      </c>
-      <c r="F56">
-        <v>21.1</v>
-      </c>
-      <c r="G56">
-        <v>21.6</v>
-      </c>
-      <c r="H56">
-        <v>21.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>45.5</v>
       </c>
       <c r="D57">
-        <v>48.9</v>
+        <v>44.6</v>
       </c>
       <c r="E57">
-        <v>49.6</v>
+        <v>45.2</v>
       </c>
       <c r="F57">
-        <v>49.8</v>
+        <v>45.2</v>
       </c>
       <c r="G57">
-        <v>49.9</v>
+        <v>45.2</v>
       </c>
       <c r="H57">
-        <v>50</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
-      <c r="C58">
-        <v>4.8</v>
-      </c>
       <c r="D58">
-        <v>5.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E58">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="F58">
-        <v>5.1</v>
+        <v>9.4</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="H58">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="C59">
-        <v>10.7</v>
-      </c>
       <c r="D59">
-        <v>11.7</v>
+        <v>17.6</v>
       </c>
       <c r="E59">
-        <v>11.1</v>
+        <v>17.6</v>
       </c>
       <c r="F59">
-        <v>10.4</v>
+        <v>17.2</v>
       </c>
       <c r="G59">
-        <v>9.9</v>
+        <v>17</v>
       </c>
       <c r="H59">
-        <v>9.6</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
       </c>
-      <c r="C60">
-        <v>37.8</v>
-      </c>
       <c r="D60">
-        <v>38.3</v>
+        <v>47.3</v>
       </c>
       <c r="E60">
-        <v>36.8</v>
+        <v>47</v>
       </c>
       <c r="F60">
-        <v>36</v>
+        <v>46.1</v>
       </c>
       <c r="G60">
-        <v>35.3</v>
+        <v>45.7</v>
       </c>
       <c r="H60">
-        <v>34.8</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
-      <c r="C61">
-        <v>40.3</v>
-      </c>
       <c r="D61">
-        <v>40.7</v>
+        <v>25.1</v>
       </c>
       <c r="E61">
-        <v>40.6</v>
+        <v>34.6</v>
       </c>
       <c r="F61">
-        <v>40.4</v>
+        <v>34.4</v>
       </c>
       <c r="G61">
-        <v>40.3</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>40.2</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C62">
-        <v>3.5</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>2.6</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>2.2</v>
+        <v>27.2</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>28.2</v>
       </c>
       <c r="G62">
-        <v>1.9</v>
+        <v>28.8</v>
       </c>
       <c r="H62">
-        <v>1.7</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63">
-        <v>7.6</v>
+        <v>31</v>
       </c>
       <c r="D63">
-        <v>6.1</v>
+        <v>0.6</v>
       </c>
       <c r="E63">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="F63">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="G63">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H63">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64">
-        <v>26.3</v>
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>23.2</v>
+        <v>45.2</v>
       </c>
       <c r="E64">
-        <v>21.3</v>
+        <v>45.4</v>
       </c>
       <c r="F64">
-        <v>20.4</v>
+        <v>45.7</v>
       </c>
       <c r="G64">
-        <v>19.3</v>
+        <v>46.1</v>
       </c>
       <c r="H64">
-        <v>18.6</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65">
-        <v>44.8</v>
+        <v>26</v>
       </c>
       <c r="D65">
-        <v>44.4</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>43.9</v>
+        <v>15.7</v>
       </c>
       <c r="F65">
-        <v>43.9</v>
+        <v>14</v>
       </c>
       <c r="G65">
-        <v>43.9</v>
+        <v>13.1</v>
       </c>
       <c r="H65">
-        <v>43.9</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66">
-        <v>5.2</v>
+        <v>27</v>
       </c>
       <c r="D66">
-        <v>4.6</v>
+        <v>26.6</v>
       </c>
       <c r="E66">
-        <v>4.6</v>
+        <v>23.5</v>
       </c>
       <c r="F66">
-        <v>4.6</v>
+        <v>21.1</v>
       </c>
       <c r="G66">
-        <v>4.6</v>
+        <v>19.9</v>
       </c>
       <c r="H66">
-        <v>4.6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67">
-        <v>9.6</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>8.6</v>
+        <v>53.3</v>
       </c>
       <c r="E67">
-        <v>8.699999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="F67">
-        <v>8.6</v>
+        <v>46.1</v>
       </c>
       <c r="G67">
-        <v>8.6</v>
+        <v>44.5</v>
       </c>
       <c r="H67">
-        <v>8.6</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68">
+        <v>21.6</v>
+      </c>
+      <c r="E68">
+        <v>23.4</v>
+      </c>
+      <c r="F68">
+        <v>32.4</v>
+      </c>
+      <c r="G68">
+        <v>32.5</v>
+      </c>
+      <c r="H68">
         <v>32.7</v>
-      </c>
-      <c r="D68">
-        <v>29.9</v>
-      </c>
-      <c r="E68">
-        <v>30.1</v>
-      </c>
-      <c r="F68">
-        <v>30.2</v>
-      </c>
-      <c r="G68">
-        <v>30.5</v>
-      </c>
-      <c r="H68">
-        <v>30.9</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69">
-        <v>38.8</v>
+        <v>30</v>
       </c>
       <c r="D69">
-        <v>39.8</v>
+        <v>24.8</v>
       </c>
       <c r="E69">
-        <v>39.8</v>
+        <v>26.7</v>
       </c>
       <c r="F69">
-        <v>39.9</v>
+        <v>29.2</v>
       </c>
       <c r="G69">
-        <v>40</v>
+        <v>30.8</v>
       </c>
       <c r="H69">
-        <v>40.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70">
-        <v>0.2</v>
+        <v>31</v>
       </c>
       <c r="D70">
         <v>0.2</v>
       </c>
       <c r="E70">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F70">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G70">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H70">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71">
-        <v>0.7</v>
+        <v>32</v>
       </c>
       <c r="D71">
-        <v>0.7</v>
+        <v>46.8</v>
       </c>
       <c r="E71">
-        <v>0.7</v>
+        <v>45.7</v>
       </c>
       <c r="F71">
-        <v>0.7</v>
+        <v>45.4</v>
       </c>
       <c r="G71">
-        <v>0.7</v>
+        <v>45.5</v>
       </c>
       <c r="H71">
-        <v>0.7</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72">
-        <v>6.3</v>
-      </c>
-      <c r="D72">
-        <v>6.6</v>
-      </c>
-      <c r="E72">
-        <v>6</v>
-      </c>
-      <c r="F72">
-        <v>5.8</v>
-      </c>
-      <c r="G72">
-        <v>5.6</v>
-      </c>
-      <c r="H72">
-        <v>5.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <v>2.3</v>
+      </c>
+      <c r="E76">
+        <v>1.7</v>
+      </c>
+      <c r="F76">
+        <v>1.7</v>
+      </c>
+      <c r="G76">
+        <v>1.7</v>
+      </c>
+      <c r="H76">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>27.4</v>
+      </c>
+      <c r="E78">
+        <v>21.7</v>
+      </c>
+      <c r="F78">
+        <v>21.8</v>
+      </c>
+      <c r="G78">
+        <v>21.6</v>
+      </c>
+      <c r="H78">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82">
+        <v>43.5</v>
+      </c>
+      <c r="D82">
+        <v>43.5</v>
+      </c>
+      <c r="E82">
+        <v>43.5</v>
+      </c>
+      <c r="F82">
+        <v>43.5</v>
+      </c>
+      <c r="G82">
+        <v>43.5</v>
+      </c>
+      <c r="H82">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D83">
+        <v>7.9</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>7.7</v>
+      </c>
+      <c r="G83">
+        <v>7.3</v>
+      </c>
+      <c r="H83">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>14.4</v>
+      </c>
+      <c r="D84">
+        <v>13.1</v>
+      </c>
+      <c r="E84">
+        <v>14.4</v>
+      </c>
+      <c r="F84">
+        <v>13.6</v>
+      </c>
+      <c r="G84">
+        <v>12.9</v>
+      </c>
+      <c r="H84">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85">
+        <v>40.4</v>
+      </c>
+      <c r="D85">
+        <v>37.9</v>
+      </c>
+      <c r="E85">
+        <v>39.2</v>
+      </c>
+      <c r="F85">
+        <v>38</v>
+      </c>
+      <c r="G85">
+        <v>37.1</v>
+      </c>
+      <c r="H85">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>36.3</v>
+      </c>
+      <c r="D86">
+        <v>36.4</v>
+      </c>
+      <c r="E86">
+        <v>35.8</v>
+      </c>
+      <c r="F86">
+        <v>35.7</v>
+      </c>
+      <c r="G86">
+        <v>35.6</v>
+      </c>
+      <c r="H86">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>26.5</v>
+      </c>
+      <c r="D87">
+        <v>29.3</v>
+      </c>
+      <c r="E87">
+        <v>32.1</v>
+      </c>
+      <c r="F87">
+        <v>33.4</v>
+      </c>
+      <c r="G87">
+        <v>34.2</v>
+      </c>
+      <c r="H87">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <v>1.1</v>
+      </c>
+      <c r="D88">
+        <v>1.4</v>
+      </c>
+      <c r="E88">
+        <v>1.7</v>
+      </c>
+      <c r="F88">
+        <v>1.9</v>
+      </c>
+      <c r="G88">
+        <v>1.9</v>
+      </c>
+      <c r="H88">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>48</v>
+      </c>
+      <c r="D89">
+        <v>48.8</v>
+      </c>
+      <c r="E89">
+        <v>49.4</v>
+      </c>
+      <c r="F89">
+        <v>49.9</v>
+      </c>
+      <c r="G89">
+        <v>49.6</v>
+      </c>
+      <c r="H89">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>3.7</v>
+      </c>
+      <c r="E90">
+        <v>3.1</v>
+      </c>
+      <c r="F90">
+        <v>3.1</v>
+      </c>
+      <c r="G90">
+        <v>3.2</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>7.2</v>
+      </c>
+      <c r="E91">
+        <v>6.8</v>
+      </c>
+      <c r="F91">
+        <v>6.9</v>
+      </c>
+      <c r="G91">
+        <v>6.9</v>
+      </c>
+      <c r="H91">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92">
+        <v>19.8</v>
+      </c>
+      <c r="E92">
+        <v>19.8</v>
+      </c>
+      <c r="F92">
+        <v>19.5</v>
+      </c>
+      <c r="G92">
+        <v>19.2</v>
+      </c>
+      <c r="H92">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93">
+        <v>18.5</v>
+      </c>
+      <c r="E93">
+        <v>18.3</v>
+      </c>
+      <c r="F93">
+        <v>22.4</v>
+      </c>
+      <c r="G93">
+        <v>21.8</v>
+      </c>
+      <c r="H93">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>56.7</v>
+      </c>
+      <c r="E94">
+        <v>55.9</v>
+      </c>
+      <c r="F94">
+        <v>56.4</v>
+      </c>
+      <c r="G94">
+        <v>56.9</v>
+      </c>
+      <c r="H94">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>6.1</v>
+      </c>
+      <c r="F95">
+        <v>6.3</v>
+      </c>
+      <c r="G95">
+        <v>6.4</v>
+      </c>
+      <c r="H95">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96">
+        <v>48.9</v>
+      </c>
+      <c r="E96">
+        <v>49.7</v>
+      </c>
+      <c r="F96">
+        <v>49.7</v>
+      </c>
+      <c r="G96">
+        <v>49.8</v>
+      </c>
+      <c r="H96">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97">
+        <v>4.8</v>
+      </c>
+      <c r="D97">
+        <v>5.9</v>
+      </c>
+      <c r="E97">
+        <v>5.1</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>4.6</v>
+      </c>
+      <c r="H97">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>10.7</v>
+      </c>
+      <c r="D98">
+        <v>11.7</v>
+      </c>
+      <c r="E98">
+        <v>10.7</v>
+      </c>
+      <c r="F98">
+        <v>10.3</v>
+      </c>
+      <c r="G98">
+        <v>9.6</v>
+      </c>
+      <c r="H98">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99">
+        <v>37.8</v>
+      </c>
+      <c r="D99">
+        <v>38.3</v>
+      </c>
+      <c r="E99">
+        <v>36.2</v>
+      </c>
+      <c r="F99">
+        <v>35.3</v>
+      </c>
+      <c r="G99">
+        <v>34.2</v>
+      </c>
+      <c r="H99">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>29.6</v>
+      </c>
+      <c r="D100">
+        <v>29.1</v>
+      </c>
+      <c r="E100">
+        <v>29.8</v>
+      </c>
+      <c r="F100">
+        <v>38.7</v>
+      </c>
+      <c r="G100">
+        <v>38.6</v>
+      </c>
+      <c r="H100">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101">
+        <v>32.1</v>
+      </c>
+      <c r="D101">
+        <v>32.1</v>
+      </c>
+      <c r="E101">
+        <v>33.5</v>
+      </c>
+      <c r="F101">
+        <v>34.8</v>
+      </c>
+      <c r="G101">
+        <v>35.9</v>
+      </c>
+      <c r="H101">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
+      </c>
+      <c r="D102">
+        <v>0.5</v>
+      </c>
+      <c r="E102">
+        <v>0.5</v>
+      </c>
+      <c r="F102">
+        <v>0.6</v>
+      </c>
+      <c r="G102">
+        <v>0.6</v>
+      </c>
+      <c r="H102">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103">
+        <v>40.3</v>
+      </c>
+      <c r="D103">
+        <v>40.7</v>
+      </c>
+      <c r="E103">
+        <v>40.1</v>
+      </c>
+      <c r="F103">
+        <v>40.3</v>
+      </c>
+      <c r="G103">
+        <v>40</v>
+      </c>
+      <c r="H103">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104">
+        <v>3.2</v>
+      </c>
+      <c r="D104">
+        <v>2.4</v>
+      </c>
+      <c r="E104">
+        <v>2.1</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>1.8</v>
+      </c>
+      <c r="H104">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>7.2</v>
+      </c>
+      <c r="D105">
+        <v>5.8</v>
+      </c>
+      <c r="E105">
+        <v>4.5</v>
+      </c>
+      <c r="F105">
+        <v>4.4</v>
+      </c>
+      <c r="G105">
+        <v>4</v>
+      </c>
+      <c r="H105">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106">
+        <v>25.8</v>
+      </c>
+      <c r="D106">
+        <v>22.8</v>
+      </c>
+      <c r="E106">
+        <v>20.5</v>
+      </c>
+      <c r="F106">
+        <v>19.3</v>
+      </c>
+      <c r="G106">
+        <v>17.9</v>
+      </c>
+      <c r="H106">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107">
+        <v>26.1</v>
+      </c>
+      <c r="D107">
+        <v>26.1</v>
+      </c>
+      <c r="E107">
+        <v>25.8</v>
+      </c>
+      <c r="F107">
+        <v>30.6</v>
+      </c>
+      <c r="G107">
+        <v>29.2</v>
+      </c>
+      <c r="H107">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>46.4</v>
+      </c>
+      <c r="D108">
+        <v>49.1</v>
+      </c>
+      <c r="E108">
+        <v>51.5</v>
+      </c>
+      <c r="F108">
+        <v>53.3</v>
+      </c>
+      <c r="G108">
+        <v>55.3</v>
+      </c>
+      <c r="H108">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>1.6</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>2.2</v>
+      </c>
+      <c r="F109">
+        <v>2.5</v>
+      </c>
+      <c r="G109">
+        <v>2.7</v>
+      </c>
+      <c r="H109">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110">
+        <v>44.6</v>
+      </c>
+      <c r="D110">
+        <v>44.2</v>
+      </c>
+      <c r="E110">
+        <v>44.2</v>
+      </c>
+      <c r="F110">
+        <v>44.5</v>
+      </c>
+      <c r="G110">
+        <v>44.7</v>
+      </c>
+      <c r="H110">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111">
+        <v>5.2</v>
+      </c>
+      <c r="D111">
+        <v>4.6</v>
+      </c>
+      <c r="E111">
+        <v>4.9</v>
+      </c>
+      <c r="F111">
+        <v>5.2</v>
+      </c>
+      <c r="G111">
+        <v>5.4</v>
+      </c>
+      <c r="H111">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112">
+        <v>9.6</v>
+      </c>
+      <c r="D112">
+        <v>8.6</v>
+      </c>
+      <c r="E112">
+        <v>8.9</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+      <c r="G112">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H112">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113">
+        <v>32.7</v>
+      </c>
+      <c r="D113">
+        <v>29.9</v>
+      </c>
+      <c r="E113">
+        <v>29.9</v>
+      </c>
+      <c r="F113">
+        <v>29.9</v>
+      </c>
+      <c r="G113">
+        <v>30</v>
+      </c>
+      <c r="H113">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>29.4</v>
+      </c>
+      <c r="E114">
+        <v>37.8</v>
+      </c>
+      <c r="F114">
+        <v>37.4</v>
+      </c>
+      <c r="G114">
+        <v>37.6</v>
+      </c>
+      <c r="H114">
+        <v>37.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>36.9</v>
+      </c>
+      <c r="D115">
+        <v>40.1</v>
+      </c>
+      <c r="E115">
+        <v>40.1</v>
+      </c>
+      <c r="F115">
+        <v>40.5</v>
+      </c>
+      <c r="G115">
+        <v>40.3</v>
+      </c>
+      <c r="H115">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116">
+        <v>0.4</v>
+      </c>
+      <c r="D116">
+        <v>0.6</v>
+      </c>
+      <c r="E116">
+        <v>0.6</v>
+      </c>
+      <c r="F116">
+        <v>0.6</v>
+      </c>
+      <c r="G116">
+        <v>0.6</v>
+      </c>
+      <c r="H116">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <v>38.8</v>
+      </c>
+      <c r="D117">
+        <v>39.8</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
+      </c>
+      <c r="F117">
+        <v>40.2</v>
+      </c>
+      <c r="G117">
+        <v>40.4</v>
+      </c>
+      <c r="H117">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
         <v>25</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118">
+        <v>0.2</v>
+      </c>
+      <c r="D118">
+        <v>0.2</v>
+      </c>
+      <c r="E118">
+        <v>0.2</v>
+      </c>
+      <c r="F118">
+        <v>0.2</v>
+      </c>
+      <c r="G118">
+        <v>0.2</v>
+      </c>
+      <c r="H118">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119">
+        <v>0.7</v>
+      </c>
+      <c r="D119">
+        <v>0.7</v>
+      </c>
+      <c r="E119">
+        <v>0.5</v>
+      </c>
+      <c r="F119">
+        <v>0.5</v>
+      </c>
+      <c r="G119">
+        <v>0.5</v>
+      </c>
+      <c r="H119">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>6.3</v>
+      </c>
+      <c r="D120">
+        <v>6.6</v>
+      </c>
+      <c r="E120">
+        <v>5.9</v>
+      </c>
+      <c r="F120">
+        <v>5.8</v>
+      </c>
+      <c r="G120">
+        <v>5.5</v>
+      </c>
+      <c r="H120">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
         <v>29</v>
       </c>
-      <c r="C73">
+      <c r="C121">
+        <v>14.8</v>
+      </c>
+      <c r="D121">
+        <v>13.9</v>
+      </c>
+      <c r="E121">
+        <v>12.9</v>
+      </c>
+      <c r="F121">
+        <v>15.5</v>
+      </c>
+      <c r="G121">
+        <v>14.8</v>
+      </c>
+      <c r="H121">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122">
+        <v>72.7</v>
+      </c>
+      <c r="D122">
+        <v>73.3</v>
+      </c>
+      <c r="E122">
+        <v>74.8</v>
+      </c>
+      <c r="F122">
+        <v>74.8</v>
+      </c>
+      <c r="G122">
+        <v>75.3</v>
+      </c>
+      <c r="H122">
+        <v>75.40000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123">
+        <v>6.1</v>
+      </c>
+      <c r="D123">
+        <v>6.2</v>
+      </c>
+      <c r="E123">
+        <v>6.5</v>
+      </c>
+      <c r="F123">
+        <v>6.6</v>
+      </c>
+      <c r="G123">
+        <v>7</v>
+      </c>
+      <c r="H123">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124">
         <v>40.6</v>
       </c>
-      <c r="D73">
+      <c r="D124">
         <v>40.9</v>
       </c>
-      <c r="E73">
-        <v>40.7</v>
-      </c>
-      <c r="F73">
-        <v>40.8</v>
-      </c>
-      <c r="G73">
-        <v>40.8</v>
-      </c>
-      <c r="H73">
-        <v>40.8</v>
+      <c r="E124">
+        <v>40</v>
+      </c>
+      <c r="F124">
+        <v>40</v>
+      </c>
+      <c r="G124">
+        <v>40.1</v>
+      </c>
+      <c r="H124">
+        <v>40.1</v>
       </c>
     </row>
   </sheetData>

--- a/data_2021PPP.xlsx
+++ b/data_2021PPP.xlsx
@@ -574,10 +574,10 @@
         <v>14.7</v>
       </c>
       <c r="G4">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="H4">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>24.8</v>
       </c>
       <c r="G5">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="H5">
         <v>24.1</v>
@@ -623,13 +623,13 @@
         <v>61.7</v>
       </c>
       <c r="F6">
-        <v>62.2</v>
+        <v>62.1</v>
       </c>
       <c r="G6">
-        <v>62.6</v>
+        <v>62.5</v>
       </c>
       <c r="H6">
-        <v>62.9</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -681,7 +681,7 @@
         <v>42.5</v>
       </c>
       <c r="H8">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5.3</v>
       </c>
       <c r="G25">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H25">
         <v>5.1</v>
@@ -1143,13 +1143,13 @@
         <v>18.6</v>
       </c>
       <c r="F26">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="G26">
         <v>17.8</v>
       </c>
       <c r="H26">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1175,7 +1175,7 @@
         <v>72.3</v>
       </c>
       <c r="H27">
-        <v>72.5</v>
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1240,9 +1240,6 @@
       <c r="C30">
         <v>9.300000000000001</v>
       </c>
-      <c r="D30">
-        <v>7.7</v>
-      </c>
       <c r="E30">
         <v>8.5</v>
       </c>
@@ -1266,9 +1263,6 @@
       <c r="C31">
         <v>15.8</v>
       </c>
-      <c r="D31">
-        <v>13.9</v>
-      </c>
       <c r="E31">
         <v>14.7</v>
       </c>
@@ -1292,9 +1286,6 @@
       <c r="C32">
         <v>40.2</v>
       </c>
-      <c r="D32">
-        <v>37.6</v>
-      </c>
       <c r="E32">
         <v>37</v>
       </c>
@@ -1318,9 +1309,6 @@
       <c r="C33">
         <v>22.6</v>
       </c>
-      <c r="D33">
-        <v>22.9</v>
-      </c>
       <c r="E33">
         <v>22.1</v>
       </c>
@@ -1344,9 +1332,6 @@
       <c r="C34">
         <v>34.3</v>
       </c>
-      <c r="D34">
-        <v>36.3</v>
-      </c>
       <c r="E34">
         <v>37.6</v>
       </c>
@@ -1370,9 +1355,6 @@
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>3.1</v>
-      </c>
       <c r="E35">
         <v>3.2</v>
       </c>
@@ -1396,9 +1378,6 @@
       <c r="C36">
         <v>54.8</v>
       </c>
-      <c r="D36">
-        <v>53.9</v>
-      </c>
       <c r="E36">
         <v>54.4</v>
       </c>
@@ -2233,6 +2212,24 @@
       <c r="B72" t="s">
         <v>26</v>
       </c>
+      <c r="C72">
+        <v>5.8</v>
+      </c>
+      <c r="D72">
+        <v>5.3</v>
+      </c>
+      <c r="E72">
+        <v>4.9</v>
+      </c>
+      <c r="F72">
+        <v>4.9</v>
+      </c>
+      <c r="G72">
+        <v>4.9</v>
+      </c>
+      <c r="H72">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
@@ -2241,6 +2238,24 @@
       <c r="B73" t="s">
         <v>27</v>
       </c>
+      <c r="C73">
+        <v>9.9</v>
+      </c>
+      <c r="D73">
+        <v>9.4</v>
+      </c>
+      <c r="E73">
+        <v>8.6</v>
+      </c>
+      <c r="F73">
+        <v>8.5</v>
+      </c>
+      <c r="G73">
+        <v>8.4</v>
+      </c>
+      <c r="H73">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -2249,6 +2264,24 @@
       <c r="B74" t="s">
         <v>28</v>
       </c>
+      <c r="C74">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>27.9</v>
+      </c>
+      <c r="E74">
+        <v>25.5</v>
+      </c>
+      <c r="F74">
+        <v>25.2</v>
+      </c>
+      <c r="G74">
+        <v>24.9</v>
+      </c>
+      <c r="H74">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
@@ -2257,6 +2290,24 @@
       <c r="B75" t="s">
         <v>32</v>
       </c>
+      <c r="C75">
+        <v>49.8</v>
+      </c>
+      <c r="D75">
+        <v>49.8</v>
+      </c>
+      <c r="E75">
+        <v>49.1</v>
+      </c>
+      <c r="F75">
+        <v>49.1</v>
+      </c>
+      <c r="G75">
+        <v>49.1</v>
+      </c>
+      <c r="H75">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -2346,20 +2397,17 @@
       <c r="C82">
         <v>43.5</v>
       </c>
-      <c r="D82">
-        <v>43.5</v>
-      </c>
       <c r="E82">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="F82">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="G82">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
       <c r="H82">
-        <v>43.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="83" spans="1:8">

--- a/data_2021PPP.xlsx
+++ b/data_2021PPP.xlsx
@@ -28,10 +28,10 @@
     <t>2023</t>
   </si>
   <si>
-    <t>2024e</t>
+    <t>2024</t>
   </si>
   <si>
-    <t>2025f</t>
+    <t>2025e</t>
   </si>
   <si>
     <t>2026f</t>
